--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823340.1880631256</v>
+        <v>821452.606546724</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>77.76857689707525</v>
+        <v>258.5475670020274</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>70.26541886851844</v>
+        <v>29.22883044751046</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>271.8963424706035</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.97262119319186</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>78.40333552909905</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>140.1425501084455</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>197.5016305035838</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319829</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.100838474818014</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>155.8385935972304</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>134.2724437449543</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>245.8703231759001</v>
+        <v>180.1018814009775</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="U19" t="n">
-        <v>65.65483501017462</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>135.4958706305994</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>37.58287499577879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.347695664762922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>137.2353514512486</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>206.8933087008752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>63.73311595762684</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>144.3654234629311</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373703</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539635</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1599.514897077236</v>
       </c>
       <c r="E2" t="n">
-        <v>550.4609080000314</v>
+        <v>1213.726644478992</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8312459770186</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8312459770186</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.020605349451</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.020605349451</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1606.020605349451</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E5" t="n">
-        <v>1220.232352751206</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>809.2464479615987</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2685.055534257422</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2685.055534257422</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2353.992646913851</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2001.223991643737</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.620445413572</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.0282177315062</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>280.0282177315062</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>280.0282177315062</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>280.0282177315062</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1382702335958</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1382702335958</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>133.1382702335958</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>586.570852783762</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750363</v>
+        <v>586.570852783762</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750363</v>
+        <v>586.570852783762</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750363</v>
+        <v>586.570852783762</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750363</v>
+        <v>586.570852783762</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.0282177315062</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340179</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936061</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685564</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1837.140060718708</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>721.9665211005574</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
         <v>392.0201325405893</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1341.503549752619</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1341.503549752619</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1341.503549752619</v>
+        <v>850.3734855054569</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.503549752619</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.513998854602</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>560.9563154684963</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5361,16 +5361,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>824.3515998808205</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>824.3515998808205</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684847</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>761.5137598931744</v>
+        <v>1006.00006471106</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562138</v>
+        <v>1006.00006471106</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>1006.00006471106</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>1006.00006471106</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,7 +5674,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U19" t="n">
-        <v>1432.59825539611</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V19" t="n">
-        <v>1177.913767190223</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>1177.913767190223</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>949.9242162922058</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>154.3878371814099</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1564.731711769082</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1894.594339433115</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.156885434021</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692.753134944335</v>
+        <v>552.3735683412851</v>
       </c>
       <c r="C22" t="n">
-        <v>523.8169520164281</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>1095.194178918105</v>
+        <v>954.814612315055</v>
       </c>
       <c r="X22" t="n">
-        <v>1095.194178918105</v>
+        <v>954.814612315055</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.4015997745747</v>
+        <v>734.0220331715249</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>1071.166064648987</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>560.9563154684963</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6236,22 +6236,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829215</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550146</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>745.8314722131611</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131611</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,28 +6452,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248439</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783077</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473426</v>
+        <v>375.1555451485337</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463202</v>
+        <v>283.0033168475114</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297805</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1590.829020032625</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.829020032625</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108109</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352519</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358724</v>
+        <v>730.4517433652459</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737129</v>
+        <v>565.4200295030864</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6683,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,55 +6853,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,31 +7096,31 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,10 +7190,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15.8380490462287</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>65.70896746115884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>117.8651995788737</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>6.267320147927876</v>
+        <v>72.03576192285053</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644338</v>
       </c>
       <c r="U19" t="n">
-        <v>220.5825173884027</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.75095046802844</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>248.9401233408122</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>282.8896567338144</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.9022918725794</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.81634668816199</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>29.67910043202846</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>21.97888096690113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="C2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855345</v>
-      </c>
-      <c r="C2" t="n">
-        <v>389994.8406855345</v>
-      </c>
-      <c r="D2" t="n">
-        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
+        <v>371477.6067508236</v>
+      </c>
+      <c r="G2" t="n">
         <v>371477.6067508237</v>
       </c>
-      <c r="G2" t="n">
-        <v>371477.6067508234</v>
-      </c>
       <c r="H2" t="n">
+        <v>371477.6067508237</v>
+      </c>
+      <c r="I2" t="n">
         <v>371477.6067508235</v>
       </c>
-      <c r="I2" t="n">
-        <v>371477.6067508236</v>
-      </c>
       <c r="J2" t="n">
-        <v>371477.6067508235</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="K2" t="n">
         <v>386481.0304780068</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="N2" t="n">
         <v>389994.8406855348</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284553</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.29213563563</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439607.0748436421</v>
+        <v>-439607.074843642</v>
       </c>
       <c r="C6" t="n">
+        <v>150360.8043709025</v>
+      </c>
+      <c r="D6" t="n">
         <v>150360.8043709024</v>
       </c>
-      <c r="D6" t="n">
-        <v>150360.8043709023</v>
-      </c>
       <c r="E6" t="n">
-        <v>-260715.4252962282</v>
+        <v>-260812.8844222005</v>
       </c>
       <c r="F6" t="n">
-        <v>264444.611180668</v>
+        <v>264347.1520546957</v>
       </c>
       <c r="G6" t="n">
-        <v>264444.6111806676</v>
+        <v>264347.1520546958</v>
       </c>
       <c r="H6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546958</v>
       </c>
       <c r="I6" t="n">
-        <v>264444.6111806679</v>
+        <v>264347.1520546956</v>
       </c>
       <c r="J6" t="n">
-        <v>88021.39198807486</v>
+        <v>87923.93286210285</v>
       </c>
       <c r="K6" t="n">
-        <v>212479.9245093028</v>
+        <v>212461.4307713683</v>
       </c>
       <c r="L6" t="n">
-        <v>244472.3712018828</v>
+        <v>244472.3712018829</v>
       </c>
       <c r="M6" t="n">
         <v>120014.2627689126</v>
@@ -26561,7 +26561,7 @@
         <v>254815.2780027498</v>
       </c>
       <c r="P6" t="n">
-        <v>210652.6726999042</v>
+        <v>210652.6726999041</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>329.1074688446362</v>
+        <v>148.328478739684</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.35005414969392</v>
+        <v>119.3866425707019</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>141.8878275501915</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>204.4756991644659</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>56.56228626323917</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>72.00298884157343</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>185.2322111598968</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.946981880942</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>23.0219114800963</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>57.74822800113536</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>246.8854746890071</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
